--- a/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU 2 GPU 1 CPU comparison.xlsx
+++ b/Benchmarks-results/Prometheus/całka NOWE/całka 1 GPU 2 GPU 1 CPU comparison.xlsx
@@ -560,7 +560,7 @@
                   <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1374</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>933</c:v>
@@ -582,11 +582,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54874496"/>
-        <c:axId val="54876416"/>
+        <c:axId val="130860928"/>
+        <c:axId val="134230400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54874496"/>
+        <c:axId val="130860928"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -613,12 +613,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54876416"/>
+        <c:crossAx val="134230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54876416"/>
+        <c:axId val="134230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54874496"/>
+        <c:crossAx val="130860928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -662,7 +662,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1133,11 +1133,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54903552"/>
-        <c:axId val="54905472"/>
+        <c:axId val="134253184"/>
+        <c:axId val="134267648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54903552"/>
+        <c:axId val="134253184"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1164,12 +1164,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54905472"/>
+        <c:crossAx val="134267648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54905472"/>
+        <c:axId val="134267648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1195,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54903552"/>
+        <c:crossAx val="134253184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1214,7 +1214,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1224,16 +1224,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1254,16 +1254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2336,10 +2336,10 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
-        <v>191.24419822517601</v>
+        <v>157.83909809850772</v>
       </c>
       <c r="K31">
-        <v>1374</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="32" spans="2:14">
